--- a/assets/stats.xlsx
+++ b/assets/stats.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alliancenorthamerica-my.sharepoint.com/personal/tbuffington_anacorp_com/Documents/Documents/EBoss Calculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{246D5129-63AE-424F-A080-28C8892A0161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F893973-8278-4C4E-835D-12AE721B4AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2937B26E-66BF-4CAE-8CC6-644AD033DA51}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -362,6 +362,12 @@
     <t>320 kW</t>
   </si>
   <si>
+    <t>Parallel capability</t>
+  </si>
+  <si>
+    <t>Available</t>
+  </si>
+  <si>
     <t>Battery Life*</t>
   </si>
   <si>
@@ -411,12 +417,6 @@
   </si>
   <si>
     <t>-50°F to 130°F</t>
-  </si>
-  <si>
-    <t>Available</t>
-  </si>
-  <si>
-    <t>Parallel capability</t>
   </si>
   <si>
     <t>Weights &amp; Dimensions</t>
@@ -516,7 +516,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -973,14 +973,14 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="39.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="15.6">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="15.6">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1008,7 +1008,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="15.6">
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="15.6">
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="15.6">
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="15.6">
       <c r="B7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="15.6">
       <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="15.6">
       <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="15.6">
       <c r="B10" s="5" t="s">
         <v>27</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" ht="15.6">
       <c r="B11" s="5" t="s">
         <v>33</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" ht="15.6">
       <c r="B12" s="5" t="s">
         <v>39</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" ht="15.6">
       <c r="B13" s="5" t="s">
         <v>45</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="15.6">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1216,7 +1216,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" ht="15.6">
       <c r="B15" s="7" t="s">
         <v>51</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" ht="15.6">
       <c r="B16" s="5" t="s">
         <v>53</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" ht="15.6">
       <c r="B17" s="5" t="s">
         <v>59</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" ht="15.6">
       <c r="B18" s="5" t="s">
         <v>63</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" ht="15.6">
       <c r="B19" s="5" t="s">
         <v>69</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" ht="15.6">
       <c r="B20" s="5" t="s">
         <v>21</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" ht="15.6">
       <c r="B21" s="5" t="s">
         <v>72</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="15.6">
       <c r="B22" s="5" t="s">
         <v>77</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" ht="15.6">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1384,7 +1384,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" ht="15.6">
       <c r="B24" s="7" t="s">
         <v>82</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="15.6">
       <c r="B25" s="5" t="s">
         <v>83</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" ht="15.6">
       <c r="B26" s="5" t="s">
         <v>85</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" ht="15.6">
       <c r="B27" s="5" t="s">
         <v>91</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="15.6">
       <c r="B28" s="5" t="s">
         <v>97</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" ht="15.6">
       <c r="B29" s="5" t="s">
         <v>102</v>
       </c>
@@ -1504,27 +1504,27 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" ht="15.6">
       <c r="B30" s="5" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="15.6">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1532,29 +1532,29 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="15.6">
       <c r="B32" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="15.6">
       <c r="B33" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>84</v>
@@ -1572,67 +1572,67 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" ht="15.6">
       <c r="B34" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="15.6">
       <c r="B35" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="15.6">
       <c r="B36" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="15.6">
       <c r="B37" s="1"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -1640,87 +1640,87 @@
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" ht="15.6">
       <c r="B38" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="15.6" customHeight="1">
       <c r="B39" s="10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="15.6">
       <c r="B40" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="15.6">
       <c r="B41" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="15.6">
       <c r="B43" s="7" t="s">
         <v>127</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" ht="15.6">
       <c r="B44" s="5" t="s">
         <v>128</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" ht="15.6">
       <c r="B45" s="5" t="s">
         <v>134</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" ht="15.6">
       <c r="B46" s="5" t="s">
         <v>140</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" ht="15.6">
       <c r="B47" s="5" t="s">
         <v>146</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" ht="15.6">
       <c r="B48" s="5" t="s">
         <v>152</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7" ht="15.6">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
